--- a/Notebooks/moa_annotations/DiSCoVER_drug_annotations.xlsx
+++ b/Notebooks/moa_annotations/DiSCoVER_drug_annotations.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8592" uniqueCount="2794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8592" uniqueCount="2795">
   <si>
     <t>ccle_drug_name</t>
   </si>
@@ -7835,6 +7835,9 @@
   </si>
   <si>
     <t>ZSTK-474; ZSTK 474; ZSTK474; KIN001-167</t>
+  </si>
+  <si>
+    <t>TAK1</t>
   </si>
   <si>
     <t>AKT2; AKT1; AKT3</t>
@@ -8832,7 +8835,7 @@
         <v>2398</v>
       </c>
       <c r="L2" t="s">
-        <v>1220</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -9060,7 +9063,7 @@
         <v>2400</v>
       </c>
       <c r="L8" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -9098,7 +9101,7 @@
         <v>2401</v>
       </c>
       <c r="L9" t="s">
-        <v>2608</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -9174,7 +9177,7 @@
         <v>1440</v>
       </c>
       <c r="L11" t="s">
-        <v>2609</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -9288,7 +9291,7 @@
         <v>1442</v>
       </c>
       <c r="L14" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -9516,7 +9519,7 @@
         <v>2404</v>
       </c>
       <c r="L20" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -9630,7 +9633,7 @@
         <v>33</v>
       </c>
       <c r="L23" t="s">
-        <v>2611</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -9668,7 +9671,7 @@
         <v>34</v>
       </c>
       <c r="L24" t="s">
-        <v>2612</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -9744,7 +9747,7 @@
         <v>2406</v>
       </c>
       <c r="L26" t="s">
-        <v>2613</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -9782,7 +9785,7 @@
         <v>37</v>
       </c>
       <c r="L27" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -9858,7 +9861,7 @@
         <v>779</v>
       </c>
       <c r="L29" t="s">
-        <v>2615</v>
+        <v>2616</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -9972,7 +9975,7 @@
         <v>2409</v>
       </c>
       <c r="L32" t="s">
-        <v>2616</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -10048,7 +10051,7 @@
         <v>1448</v>
       </c>
       <c r="L34" t="s">
-        <v>2617</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -10238,7 +10241,7 @@
         <v>2411</v>
       </c>
       <c r="L39" t="s">
-        <v>2618</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -10390,7 +10393,7 @@
         <v>1452</v>
       </c>
       <c r="L43" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -10428,7 +10431,7 @@
         <v>1453</v>
       </c>
       <c r="L44" t="s">
-        <v>2620</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -10466,7 +10469,7 @@
         <v>2413</v>
       </c>
       <c r="L45" t="s">
-        <v>2621</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -10542,7 +10545,7 @@
         <v>2414</v>
       </c>
       <c r="L47" t="s">
-        <v>2622</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -10580,7 +10583,7 @@
         <v>2415</v>
       </c>
       <c r="L48" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -10922,7 +10925,7 @@
         <v>2417</v>
       </c>
       <c r="L57" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -11036,7 +11039,7 @@
         <v>2418</v>
       </c>
       <c r="L60" t="s">
-        <v>2624</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -11074,7 +11077,7 @@
         <v>791</v>
       </c>
       <c r="L61" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -11264,7 +11267,7 @@
         <v>2420</v>
       </c>
       <c r="L66" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -11454,7 +11457,7 @@
         <v>1463</v>
       </c>
       <c r="L71" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -11530,7 +11533,7 @@
         <v>2421</v>
       </c>
       <c r="L73" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -11606,7 +11609,7 @@
         <v>2423</v>
       </c>
       <c r="L75" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -11644,7 +11647,7 @@
         <v>2424</v>
       </c>
       <c r="L76" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -11682,7 +11685,7 @@
         <v>2425</v>
       </c>
       <c r="L77" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -11720,7 +11723,7 @@
         <v>2426</v>
       </c>
       <c r="L78" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -11834,7 +11837,7 @@
         <v>1467</v>
       </c>
       <c r="L81" t="s">
-        <v>2633</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -11986,7 +11989,7 @@
         <v>1471</v>
       </c>
       <c r="L85" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -12822,7 +12825,7 @@
         <v>1493</v>
       </c>
       <c r="L107" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="108" spans="1:12">
@@ -13734,7 +13737,7 @@
         <v>1517</v>
       </c>
       <c r="L131" t="s">
-        <v>2634</v>
+        <v>2635</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -15406,7 +15409,7 @@
         <v>2428</v>
       </c>
       <c r="L175" t="s">
-        <v>2635</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="176" spans="1:12">
@@ -15482,7 +15485,7 @@
         <v>1559</v>
       </c>
       <c r="L177" t="s">
-        <v>2636</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="178" spans="1:12">
@@ -15520,7 +15523,7 @@
         <v>2429</v>
       </c>
       <c r="L178" t="s">
-        <v>2637</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="179" spans="1:12">
@@ -16128,7 +16131,7 @@
         <v>204</v>
       </c>
       <c r="L194" t="s">
-        <v>2638</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -16166,7 +16169,7 @@
         <v>205</v>
       </c>
       <c r="L195" t="s">
-        <v>2639</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -16318,7 +16321,7 @@
         <v>2434</v>
       </c>
       <c r="L199" t="s">
-        <v>2640</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -16356,7 +16359,7 @@
         <v>1568</v>
       </c>
       <c r="L200" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -16394,7 +16397,7 @@
         <v>2435</v>
       </c>
       <c r="L201" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -17078,7 +17081,7 @@
         <v>1578</v>
       </c>
       <c r="L219" t="s">
-        <v>2642</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="220" spans="1:12">
@@ -17306,7 +17309,7 @@
         <v>1582</v>
       </c>
       <c r="L225" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="226" spans="1:12">
@@ -17344,7 +17347,7 @@
         <v>2441</v>
       </c>
       <c r="L226" t="s">
-        <v>2644</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="227" spans="1:12">
@@ -17382,7 +17385,7 @@
         <v>1583</v>
       </c>
       <c r="L227" t="s">
-        <v>2645</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="228" spans="1:12">
@@ -17458,7 +17461,7 @@
         <v>2442</v>
       </c>
       <c r="L229" t="s">
-        <v>2646</v>
+        <v>2647</v>
       </c>
     </row>
     <row r="230" spans="1:12">
@@ -17914,7 +17917,7 @@
         <v>2447</v>
       </c>
       <c r="L241" t="s">
-        <v>2647</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="242" spans="1:12">
@@ -17952,7 +17955,7 @@
         <v>2448</v>
       </c>
       <c r="L242" t="s">
-        <v>2648</v>
+        <v>2649</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -18028,7 +18031,7 @@
         <v>2449</v>
       </c>
       <c r="L244" t="s">
-        <v>2649</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -18180,7 +18183,7 @@
         <v>258</v>
       </c>
       <c r="L248" t="s">
-        <v>2650</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -18256,7 +18259,7 @@
         <v>260</v>
       </c>
       <c r="L250" t="s">
-        <v>2651</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -18408,7 +18411,7 @@
         <v>2452</v>
       </c>
       <c r="L254" t="s">
-        <v>2652</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -18446,7 +18449,7 @@
         <v>2453</v>
       </c>
       <c r="L255" t="s">
-        <v>2653</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -18484,7 +18487,7 @@
         <v>266</v>
       </c>
       <c r="L256" t="s">
-        <v>2654</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -18712,7 +18715,7 @@
         <v>2457</v>
       </c>
       <c r="L262" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -18864,7 +18867,7 @@
         <v>276</v>
       </c>
       <c r="L266" t="s">
-        <v>2655</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -18978,7 +18981,7 @@
         <v>1590</v>
       </c>
       <c r="L269" t="s">
-        <v>2656</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -19054,7 +19057,7 @@
         <v>2461</v>
       </c>
       <c r="L271" t="s">
-        <v>2657</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -19092,7 +19095,7 @@
         <v>1591</v>
       </c>
       <c r="L272" t="s">
-        <v>2658</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -19206,7 +19209,7 @@
         <v>841</v>
       </c>
       <c r="L275" t="s">
-        <v>2659</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -19396,7 +19399,7 @@
         <v>2464</v>
       </c>
       <c r="L280" t="s">
-        <v>2660</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -19662,7 +19665,7 @@
         <v>1597</v>
       </c>
       <c r="L287" t="s">
-        <v>2661</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="288" spans="1:12">
@@ -19814,7 +19817,7 @@
         <v>2467</v>
       </c>
       <c r="L291" t="s">
-        <v>2662</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="292" spans="1:12">
@@ -19966,7 +19969,7 @@
         <v>305</v>
       </c>
       <c r="L295" t="s">
-        <v>2663</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="296" spans="1:12">
@@ -20080,7 +20083,7 @@
         <v>1603</v>
       </c>
       <c r="L298" t="s">
-        <v>2664</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="299" spans="1:12">
@@ -20156,7 +20159,7 @@
         <v>2470</v>
       </c>
       <c r="L300" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="301" spans="1:12">
@@ -20232,7 +20235,7 @@
         <v>2471</v>
       </c>
       <c r="L302" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="303" spans="1:12">
@@ -20346,7 +20349,7 @@
         <v>854</v>
       </c>
       <c r="L305" t="s">
-        <v>2665</v>
+        <v>2666</v>
       </c>
     </row>
     <row r="306" spans="1:12">
@@ -20460,7 +20463,7 @@
         <v>2474</v>
       </c>
       <c r="L308" t="s">
-        <v>2607</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="309" spans="1:12">
@@ -20764,7 +20767,7 @@
         <v>860</v>
       </c>
       <c r="L316" t="s">
-        <v>2666</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="317" spans="1:12">
@@ -20802,7 +20805,7 @@
         <v>861</v>
       </c>
       <c r="L317" t="s">
-        <v>2667</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="318" spans="1:12">
@@ -20954,7 +20957,7 @@
         <v>2479</v>
       </c>
       <c r="L321" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="322" spans="1:12">
@@ -20992,7 +20995,7 @@
         <v>1612</v>
       </c>
       <c r="L322" t="s">
-        <v>2668</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="323" spans="1:12">
@@ -21144,7 +21147,7 @@
         <v>2480</v>
       </c>
       <c r="L326" t="s">
-        <v>2669</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="327" spans="1:12">
@@ -21220,7 +21223,7 @@
         <v>2481</v>
       </c>
       <c r="L328" t="s">
-        <v>2670</v>
+        <v>2671</v>
       </c>
     </row>
     <row r="329" spans="1:12">
@@ -21638,7 +21641,7 @@
         <v>1617</v>
       </c>
       <c r="L339" t="s">
-        <v>2671</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="340" spans="1:12">
@@ -21942,7 +21945,7 @@
         <v>1620</v>
       </c>
       <c r="L347" t="s">
-        <v>2672</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="348" spans="1:12">
@@ -21980,7 +21983,7 @@
         <v>1621</v>
       </c>
       <c r="L348" t="s">
-        <v>2673</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="349" spans="1:12">
@@ -22018,7 +22021,7 @@
         <v>1622</v>
       </c>
       <c r="L349" t="s">
-        <v>2674</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="350" spans="1:12">
@@ -22056,7 +22059,7 @@
         <v>1623</v>
       </c>
       <c r="L350" t="s">
-        <v>2675</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="351" spans="1:12">
@@ -22094,7 +22097,7 @@
         <v>2486</v>
       </c>
       <c r="L351" t="s">
-        <v>2676</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="352" spans="1:12">
@@ -22436,7 +22439,7 @@
         <v>1630</v>
       </c>
       <c r="L360" t="s">
-        <v>2677</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="361" spans="1:12">
@@ -22968,7 +22971,7 @@
         <v>732</v>
       </c>
       <c r="L374" t="s">
-        <v>2678</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="375" spans="1:12">
@@ -23044,7 +23047,7 @@
         <v>1638</v>
       </c>
       <c r="L376" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="377" spans="1:12">
@@ -23196,7 +23199,7 @@
         <v>390</v>
       </c>
       <c r="L380" t="s">
-        <v>2679</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="381" spans="1:12">
@@ -23272,7 +23275,7 @@
         <v>2493</v>
       </c>
       <c r="L382" t="s">
-        <v>2680</v>
+        <v>2681</v>
       </c>
     </row>
     <row r="383" spans="1:12">
@@ -23348,7 +23351,7 @@
         <v>2495</v>
       </c>
       <c r="L384" t="s">
-        <v>2681</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="385" spans="1:12">
@@ -23386,7 +23389,7 @@
         <v>2496</v>
       </c>
       <c r="L385" t="s">
-        <v>2682</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="386" spans="1:12">
@@ -23500,7 +23503,7 @@
         <v>1641</v>
       </c>
       <c r="L388" t="s">
-        <v>2683</v>
+        <v>2684</v>
       </c>
     </row>
     <row r="389" spans="1:12">
@@ -23652,7 +23655,7 @@
         <v>1644</v>
       </c>
       <c r="L392" t="s">
-        <v>2684</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="393" spans="1:12">
@@ -23728,7 +23731,7 @@
         <v>2498</v>
       </c>
       <c r="L394" t="s">
-        <v>2685</v>
+        <v>2686</v>
       </c>
     </row>
     <row r="395" spans="1:12">
@@ -23842,7 +23845,7 @@
         <v>2499</v>
       </c>
       <c r="L397" t="s">
-        <v>2686</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="398" spans="1:12">
@@ -23880,7 +23883,7 @@
         <v>408</v>
       </c>
       <c r="L398" t="s">
-        <v>2687</v>
+        <v>2688</v>
       </c>
     </row>
     <row r="399" spans="1:12">
@@ -23918,7 +23921,7 @@
         <v>2500</v>
       </c>
       <c r="L399" t="s">
-        <v>2688</v>
+        <v>2689</v>
       </c>
     </row>
     <row r="400" spans="1:12">
@@ -23956,7 +23959,7 @@
         <v>1648</v>
       </c>
       <c r="L400" t="s">
-        <v>2689</v>
+        <v>2690</v>
       </c>
     </row>
     <row r="401" spans="1:12">
@@ -24070,7 +24073,7 @@
         <v>2501</v>
       </c>
       <c r="L403" t="s">
-        <v>2690</v>
+        <v>2691</v>
       </c>
     </row>
     <row r="404" spans="1:12">
@@ -24184,7 +24187,7 @@
         <v>1651</v>
       </c>
       <c r="L406" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="407" spans="1:12">
@@ -24260,7 +24263,7 @@
         <v>2503</v>
       </c>
       <c r="L408" t="s">
-        <v>2692</v>
+        <v>2693</v>
       </c>
     </row>
     <row r="409" spans="1:12">
@@ -24868,7 +24871,7 @@
         <v>1668</v>
       </c>
       <c r="L424" t="s">
-        <v>2693</v>
+        <v>2694</v>
       </c>
     </row>
     <row r="425" spans="1:12">
@@ -24906,7 +24909,7 @@
         <v>435</v>
       </c>
       <c r="L425" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="426" spans="1:12">
@@ -24944,7 +24947,7 @@
         <v>2504</v>
       </c>
       <c r="L426" t="s">
-        <v>2694</v>
+        <v>2695</v>
       </c>
     </row>
     <row r="427" spans="1:12">
@@ -25096,7 +25099,7 @@
         <v>440</v>
       </c>
       <c r="L430" t="s">
-        <v>2695</v>
+        <v>2696</v>
       </c>
     </row>
     <row r="431" spans="1:12">
@@ -25134,7 +25137,7 @@
         <v>1670</v>
       </c>
       <c r="L431" t="s">
-        <v>2696</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="432" spans="1:12">
@@ -25248,7 +25251,7 @@
         <v>2505</v>
       </c>
       <c r="L434" t="s">
-        <v>2697</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="435" spans="1:12">
@@ -25286,7 +25289,7 @@
         <v>445</v>
       </c>
       <c r="L435" t="s">
-        <v>2698</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="436" spans="1:12">
@@ -25324,7 +25327,7 @@
         <v>446</v>
       </c>
       <c r="L436" t="s">
-        <v>2699</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="437" spans="1:12">
@@ -25362,7 +25365,7 @@
         <v>1671</v>
       </c>
       <c r="L437" t="s">
-        <v>2700</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="438" spans="1:12">
@@ -25400,7 +25403,7 @@
         <v>448</v>
       </c>
       <c r="L438" t="s">
-        <v>2610</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="439" spans="1:12">
@@ -25438,7 +25441,7 @@
         <v>449</v>
       </c>
       <c r="L439" t="s">
-        <v>2701</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="440" spans="1:12">
@@ -25476,7 +25479,7 @@
         <v>1672</v>
       </c>
       <c r="L440" t="s">
-        <v>2702</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="441" spans="1:12">
@@ -25514,7 +25517,7 @@
         <v>451</v>
       </c>
       <c r="L441" t="s">
-        <v>2703</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="442" spans="1:12">
@@ -25818,7 +25821,7 @@
         <v>2506</v>
       </c>
       <c r="L449" t="s">
-        <v>2704</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="450" spans="1:12">
@@ -25894,7 +25897,7 @@
         <v>2507</v>
       </c>
       <c r="L451" t="s">
-        <v>2705</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="452" spans="1:12">
@@ -25932,7 +25935,7 @@
         <v>462</v>
       </c>
       <c r="L452" t="s">
-        <v>2706</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="453" spans="1:12">
@@ -26350,7 +26353,7 @@
         <v>1681</v>
       </c>
       <c r="L463" t="s">
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -26692,7 +26695,7 @@
         <v>2513</v>
       </c>
       <c r="L472" t="s">
-        <v>2708</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -26844,7 +26847,7 @@
         <v>2515</v>
       </c>
       <c r="L476" t="s">
-        <v>2709</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -26882,7 +26885,7 @@
         <v>2516</v>
       </c>
       <c r="L477" t="s">
-        <v>2623</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -26996,7 +26999,7 @@
         <v>490</v>
       </c>
       <c r="L480" t="s">
-        <v>2710</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -27072,7 +27075,7 @@
         <v>2519</v>
       </c>
       <c r="L482" t="s">
-        <v>2711</v>
+        <v>2712</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -27110,7 +27113,7 @@
         <v>2520</v>
       </c>
       <c r="L483" t="s">
-        <v>2712</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -27224,7 +27227,7 @@
         <v>496</v>
       </c>
       <c r="L486" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -27376,7 +27379,7 @@
         <v>2523</v>
       </c>
       <c r="L490" t="s">
-        <v>2713</v>
+        <v>2714</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -27452,7 +27455,7 @@
         <v>2524</v>
       </c>
       <c r="L492" t="s">
-        <v>2714</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -27642,7 +27645,7 @@
         <v>2527</v>
       </c>
       <c r="L497" t="s">
-        <v>2715</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -27794,7 +27797,7 @@
         <v>1693</v>
       </c>
       <c r="L501" t="s">
-        <v>2716</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -27870,7 +27873,7 @@
         <v>2529</v>
       </c>
       <c r="L503" t="s">
-        <v>2717</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -28022,7 +28025,7 @@
         <v>2530</v>
       </c>
       <c r="L507" t="s">
-        <v>2718</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -28060,7 +28063,7 @@
         <v>2531</v>
       </c>
       <c r="L508" t="s">
-        <v>2719</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -28098,7 +28101,7 @@
         <v>2532</v>
       </c>
       <c r="L509" t="s">
-        <v>2720</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -28212,7 +28215,7 @@
         <v>2534</v>
       </c>
       <c r="L512" t="s">
-        <v>2721</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -28250,7 +28253,7 @@
         <v>2535</v>
       </c>
       <c r="L513" t="s">
-        <v>2722</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -28326,7 +28329,7 @@
         <v>525</v>
       </c>
       <c r="L515" t="s">
-        <v>2723</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -28364,7 +28367,7 @@
         <v>2536</v>
       </c>
       <c r="L516" t="s">
-        <v>2724</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -28478,7 +28481,7 @@
         <v>529</v>
       </c>
       <c r="L519" t="s">
-        <v>2725</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -28668,7 +28671,7 @@
         <v>2538</v>
       </c>
       <c r="L524" t="s">
-        <v>2726</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -28706,7 +28709,7 @@
         <v>2539</v>
       </c>
       <c r="L525" t="s">
-        <v>2727</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -29124,7 +29127,7 @@
         <v>931</v>
       </c>
       <c r="L536" t="s">
-        <v>2728</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="537" spans="1:12">
@@ -29504,7 +29507,7 @@
         <v>743</v>
       </c>
       <c r="L546" t="s">
-        <v>2729</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="547" spans="1:12">
@@ -29580,7 +29583,7 @@
         <v>558</v>
       </c>
       <c r="L548" t="s">
-        <v>2730</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="549" spans="1:12">
@@ -29694,7 +29697,7 @@
         <v>561</v>
       </c>
       <c r="L551" t="s">
-        <v>2731</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="552" spans="1:12">
@@ -29732,7 +29735,7 @@
         <v>1712</v>
       </c>
       <c r="L552" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="553" spans="1:12">
@@ -29808,7 +29811,7 @@
         <v>1713</v>
       </c>
       <c r="L554" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="555" spans="1:12">
@@ -29922,7 +29925,7 @@
         <v>2545</v>
       </c>
       <c r="L557" t="s">
-        <v>2619</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="558" spans="1:12">
@@ -29998,7 +30001,7 @@
         <v>569</v>
       </c>
       <c r="L559" t="s">
-        <v>2733</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="560" spans="1:12">
@@ -30036,7 +30039,7 @@
         <v>1714</v>
       </c>
       <c r="L560" t="s">
-        <v>2734</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="561" spans="1:12">
@@ -30112,7 +30115,7 @@
         <v>2548</v>
       </c>
       <c r="L562" t="s">
-        <v>2735</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="563" spans="1:12">
@@ -30302,7 +30305,7 @@
         <v>2549</v>
       </c>
       <c r="L567" t="s">
-        <v>2641</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="568" spans="1:12">
@@ -30530,7 +30533,7 @@
         <v>2553</v>
       </c>
       <c r="L573" t="s">
-        <v>2736</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="574" spans="1:12">
@@ -30606,7 +30609,7 @@
         <v>2555</v>
       </c>
       <c r="L575" t="s">
-        <v>2737</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="576" spans="1:12">
@@ -30644,7 +30647,7 @@
         <v>1722</v>
       </c>
       <c r="L576" t="s">
-        <v>2738</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="577" spans="1:12">
@@ -30682,7 +30685,7 @@
         <v>587</v>
       </c>
       <c r="L577" t="s">
-        <v>2739</v>
+        <v>2740</v>
       </c>
     </row>
     <row r="578" spans="1:12">
@@ -30720,7 +30723,7 @@
         <v>1723</v>
       </c>
       <c r="L578" t="s">
-        <v>2740</v>
+        <v>2741</v>
       </c>
     </row>
     <row r="579" spans="1:12">
@@ -30758,7 +30761,7 @@
         <v>1724</v>
       </c>
       <c r="L579" t="s">
-        <v>2741</v>
+        <v>2742</v>
       </c>
     </row>
     <row r="580" spans="1:12">
@@ -30796,7 +30799,7 @@
         <v>1725</v>
       </c>
       <c r="L580" t="s">
-        <v>2742</v>
+        <v>2743</v>
       </c>
     </row>
     <row r="581" spans="1:12">
@@ -30834,7 +30837,7 @@
         <v>591</v>
       </c>
       <c r="L581" t="s">
-        <v>2743</v>
+        <v>2744</v>
       </c>
     </row>
     <row r="582" spans="1:12">
@@ -30910,7 +30913,7 @@
         <v>1726</v>
       </c>
       <c r="L583" t="s">
-        <v>2744</v>
+        <v>2745</v>
       </c>
     </row>
     <row r="584" spans="1:12">
@@ -30948,7 +30951,7 @@
         <v>594</v>
       </c>
       <c r="L584" t="s">
-        <v>2745</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="585" spans="1:12">
@@ -30986,7 +30989,7 @@
         <v>1727</v>
       </c>
       <c r="L585" t="s">
-        <v>2746</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="586" spans="1:12">
@@ -31024,7 +31027,7 @@
         <v>596</v>
       </c>
       <c r="L586" t="s">
-        <v>2747</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="587" spans="1:12">
@@ -31062,7 +31065,7 @@
         <v>597</v>
       </c>
       <c r="L587" t="s">
-        <v>2691</v>
+        <v>2692</v>
       </c>
     </row>
     <row r="588" spans="1:12">
@@ -31176,7 +31179,7 @@
         <v>1729</v>
       </c>
       <c r="L590" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="591" spans="1:12">
@@ -31480,7 +31483,7 @@
         <v>2559</v>
       </c>
       <c r="L598" t="s">
-        <v>2748</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="599" spans="1:12">
@@ -31518,7 +31521,7 @@
         <v>609</v>
       </c>
       <c r="L599" t="s">
-        <v>2749</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="600" spans="1:12">
@@ -31594,7 +31597,7 @@
         <v>1732</v>
       </c>
       <c r="L601" t="s">
-        <v>2732</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="602" spans="1:12">
@@ -31708,7 +31711,7 @@
         <v>2560</v>
       </c>
       <c r="L604" t="s">
-        <v>2750</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="605" spans="1:12">
@@ -31746,7 +31749,7 @@
         <v>1735</v>
       </c>
       <c r="L605" t="s">
-        <v>2751</v>
+        <v>2752</v>
       </c>
     </row>
     <row r="606" spans="1:12">
@@ -31822,7 +31825,7 @@
         <v>1736</v>
       </c>
       <c r="L607" t="s">
-        <v>2752</v>
+        <v>2753</v>
       </c>
     </row>
     <row r="608" spans="1:12">
@@ -31860,7 +31863,7 @@
         <v>2562</v>
       </c>
       <c r="L608" t="s">
-        <v>2753</v>
+        <v>2754</v>
       </c>
     </row>
     <row r="609" spans="1:12">
@@ -31898,7 +31901,7 @@
         <v>1737</v>
       </c>
       <c r="L609" t="s">
-        <v>2754</v>
+        <v>2755</v>
       </c>
     </row>
     <row r="610" spans="1:12">
@@ -31936,7 +31939,7 @@
         <v>2563</v>
       </c>
       <c r="L610" t="s">
-        <v>2755</v>
+        <v>2756</v>
       </c>
     </row>
     <row r="611" spans="1:12">
@@ -32012,7 +32015,7 @@
         <v>622</v>
       </c>
       <c r="L612" t="s">
-        <v>2756</v>
+        <v>2757</v>
       </c>
     </row>
     <row r="613" spans="1:12">
@@ -32050,7 +32053,7 @@
         <v>1738</v>
       </c>
       <c r="L613" t="s">
-        <v>2643</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="614" spans="1:12">
@@ -32088,7 +32091,7 @@
         <v>1739</v>
       </c>
       <c r="L614" t="s">
-        <v>2757</v>
+        <v>2758</v>
       </c>
     </row>
     <row r="615" spans="1:12">
@@ -32392,7 +32395,7 @@
         <v>2565</v>
       </c>
       <c r="L622" t="s">
-        <v>2758</v>
+        <v>2759</v>
       </c>
     </row>
     <row r="623" spans="1:12">
@@ -32468,7 +32471,7 @@
         <v>2566</v>
       </c>
       <c r="L624" t="s">
-        <v>2759</v>
+        <v>2760</v>
       </c>
     </row>
     <row r="625" spans="1:12">
@@ -32506,7 +32509,7 @@
         <v>635</v>
       </c>
       <c r="L625" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="626" spans="1:12">
@@ -32544,7 +32547,7 @@
         <v>636</v>
       </c>
       <c r="L626" t="s">
-        <v>2760</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="627" spans="1:12">
@@ -32772,7 +32775,7 @@
         <v>642</v>
       </c>
       <c r="L632" t="s">
-        <v>2761</v>
+        <v>2762</v>
       </c>
     </row>
     <row r="633" spans="1:12">
@@ -32810,7 +32813,7 @@
         <v>2571</v>
       </c>
       <c r="L633" t="s">
-        <v>2762</v>
+        <v>2763</v>
       </c>
     </row>
     <row r="634" spans="1:12">
@@ -32848,7 +32851,7 @@
         <v>644</v>
       </c>
       <c r="L634" t="s">
-        <v>2763</v>
+        <v>2764</v>
       </c>
     </row>
     <row r="635" spans="1:12">
@@ -32886,7 +32889,7 @@
         <v>645</v>
       </c>
       <c r="L635" t="s">
-        <v>2764</v>
+        <v>2765</v>
       </c>
     </row>
     <row r="636" spans="1:12">
@@ -33000,7 +33003,7 @@
         <v>648</v>
       </c>
       <c r="L638" t="s">
-        <v>2765</v>
+        <v>2766</v>
       </c>
     </row>
     <row r="639" spans="1:12">
@@ -33038,7 +33041,7 @@
         <v>1746</v>
       </c>
       <c r="L639" t="s">
-        <v>2766</v>
+        <v>2767</v>
       </c>
     </row>
     <row r="640" spans="1:12">
@@ -33076,7 +33079,7 @@
         <v>2574</v>
       </c>
       <c r="L640" t="s">
-        <v>2767</v>
+        <v>2768</v>
       </c>
     </row>
     <row r="641" spans="1:12">
@@ -33456,7 +33459,7 @@
         <v>2577</v>
       </c>
       <c r="L650" t="s">
-        <v>2768</v>
+        <v>2769</v>
       </c>
     </row>
     <row r="651" spans="1:12">
@@ -33646,7 +33649,7 @@
         <v>665</v>
       </c>
       <c r="L655" t="s">
-        <v>2769</v>
+        <v>2770</v>
       </c>
     </row>
     <row r="656" spans="1:12">
@@ -33684,7 +33687,7 @@
         <v>2579</v>
       </c>
       <c r="L656" t="s">
-        <v>2770</v>
+        <v>2771</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -33722,7 +33725,7 @@
         <v>980</v>
       </c>
       <c r="L657" t="s">
-        <v>2771</v>
+        <v>2772</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -33760,7 +33763,7 @@
         <v>2580</v>
       </c>
       <c r="L658" t="s">
-        <v>2772</v>
+        <v>2773</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -33798,7 +33801,7 @@
         <v>2581</v>
       </c>
       <c r="L659" t="s">
-        <v>2773</v>
+        <v>2774</v>
       </c>
     </row>
     <row r="660" spans="1:12">
@@ -33836,7 +33839,7 @@
         <v>670</v>
       </c>
       <c r="L660" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="661" spans="1:12">
@@ -33874,7 +33877,7 @@
         <v>671</v>
       </c>
       <c r="L661" t="s">
-        <v>2774</v>
+        <v>2775</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -33912,7 +33915,7 @@
         <v>672</v>
       </c>
       <c r="L662" t="s">
-        <v>2775</v>
+        <v>2776</v>
       </c>
     </row>
     <row r="663" spans="1:12">
@@ -34026,7 +34029,7 @@
         <v>2582</v>
       </c>
       <c r="L665" t="s">
-        <v>2776</v>
+        <v>2777</v>
       </c>
     </row>
     <row r="666" spans="1:12">
@@ -34064,7 +34067,7 @@
         <v>2583</v>
       </c>
       <c r="L666" t="s">
-        <v>2777</v>
+        <v>2778</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -34140,7 +34143,7 @@
         <v>2584</v>
       </c>
       <c r="L668" t="s">
-        <v>2778</v>
+        <v>2779</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -34178,7 +34181,7 @@
         <v>1753</v>
       </c>
       <c r="L669" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="670" spans="1:12">
@@ -34672,7 +34675,7 @@
         <v>2591</v>
       </c>
       <c r="L682" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
     </row>
     <row r="683" spans="1:12">
@@ -34710,7 +34713,7 @@
         <v>693</v>
       </c>
       <c r="L683" t="s">
-        <v>2614</v>
+        <v>2615</v>
       </c>
     </row>
     <row r="684" spans="1:12">
@@ -34748,7 +34751,7 @@
         <v>694</v>
       </c>
       <c r="L684" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
     </row>
     <row r="685" spans="1:12">
@@ -34786,7 +34789,7 @@
         <v>1756</v>
       </c>
       <c r="L685" t="s">
-        <v>2782</v>
+        <v>2783</v>
       </c>
     </row>
     <row r="686" spans="1:12">
@@ -34862,7 +34865,7 @@
         <v>1757</v>
       </c>
       <c r="L687" t="s">
-        <v>2783</v>
+        <v>2784</v>
       </c>
     </row>
     <row r="688" spans="1:12">
@@ -34976,7 +34979,7 @@
         <v>2594</v>
       </c>
       <c r="L690" t="s">
-        <v>2784</v>
+        <v>2785</v>
       </c>
     </row>
     <row r="691" spans="1:12">
@@ -35014,7 +35017,7 @@
         <v>2595</v>
       </c>
       <c r="L691" t="s">
-        <v>2785</v>
+        <v>2786</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -35090,7 +35093,7 @@
         <v>1759</v>
       </c>
       <c r="L693" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -35166,7 +35169,7 @@
         <v>999</v>
       </c>
       <c r="L695" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
     </row>
     <row r="696" spans="1:12">
@@ -35280,7 +35283,7 @@
         <v>2598</v>
       </c>
       <c r="L698" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
     </row>
     <row r="699" spans="1:12">
@@ -35318,7 +35321,7 @@
         <v>1762</v>
       </c>
       <c r="L699" t="s">
-        <v>2789</v>
+        <v>2790</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -35356,7 +35359,7 @@
         <v>1001</v>
       </c>
       <c r="L700" t="s">
-        <v>2790</v>
+        <v>2791</v>
       </c>
     </row>
     <row r="701" spans="1:12">
@@ -35432,7 +35435,7 @@
         <v>1003</v>
       </c>
       <c r="L702" t="s">
-        <v>2791</v>
+        <v>2792</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -35622,7 +35625,7 @@
         <v>2601</v>
       </c>
       <c r="L707" t="s">
-        <v>2792</v>
+        <v>2793</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -35964,7 +35967,7 @@
         <v>2606</v>
       </c>
       <c r="L716" t="s">
-        <v>2793</v>
+        <v>2794</v>
       </c>
     </row>
   </sheetData>
